--- a/Linear Programming/ЛП.xlsx
+++ b/Linear Programming/ЛП.xlsx
@@ -2398,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2990,20 +2990,20 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>-16.799999999999986</v>
+        <v>4.5</v>
       </c>
       <c r="B45" s="3">
-        <f>(28-5*A45)/4 +(5*A45)/3</f>
+        <f>(18 - 4*A45) / 4</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <f>(28-4*B46)/5 + (3*B46)/5</f>
+        <f xml:space="preserve"> (-5 * B46) / 3</f>
         <v>0</v>
       </c>
       <c r="B46" s="3">
-        <v>27.999999999999975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
